--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_4_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_4_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.5600000000004</v>
+        <v>25.01000000000047</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.116415507719737e-16</v>
+        <v>3.929993007522678e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.14125158009548</v>
+        <v>43.15151862335888</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.31596643446217, 53.9665367257288]</t>
+          <t>[34.89258313911676, 51.410454107601005]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.239026532046426</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0251843894597332, 1.4528686746331179]</t>
+          <t>[1.478026573760963, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.32466522416518</v>
+        <v>58.42101517870471</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.27674215138848, 63.37258829694188]</t>
+          <t>[53.113842335028366, 63.72818802238106]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.71683683683716</v>
+        <v>18.27557557557592</v>
       </c>
       <c r="X2" t="n">
-        <v>18.88096096096127</v>
+        <v>17.42438438438471</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55271271271305</v>
+        <v>19.12676676676713</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.24000000000019</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.336450116186995e-09</v>
+        <v>1.137855365485052e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>7.306009269791858e-09</v>
+        <v>2.977462857044907e-10</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.33504413307882</v>
+        <v>42.60465529245253</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[22.953601900919466, 51.71648636523818]</t>
+          <t>[28.167891930594273, 57.041418654310796]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.317224731741902e-07</v>
+        <v>3.544561466561902e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>9.317224731741902e-07</v>
+        <v>3.544561466561902e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.069210712933463</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.4843160485429259, -0.6541053773240009]</t>
+          <t>[-0.6541053773240009, 0.1006315965113842]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.114573771721084e-06</v>
+        <v>0.1493489662997134</v>
       </c>
       <c r="R3" t="n">
-        <v>1.114573771721084e-06</v>
+        <v>0.1493489662997134</v>
       </c>
       <c r="S3" t="n">
-        <v>58.56060557222169</v>
+        <v>60.74162172134541</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.70394691103587, 66.41726423340751]</t>
+          <t>[52.61085857590626, 68.87238486678456]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.954754754754788</v>
+        <v>1.043843843843856</v>
       </c>
       <c r="X3" t="n">
-        <v>2.419379379379398</v>
+        <v>-0.3795795795795822</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.490130130130177</v>
+        <v>2.467267267267294</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_4_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_4_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.01000000000047</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.929993007522678e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.874363817799758e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.88429360688903</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.15151862335888</v>
+        <v>42.09639961001338</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[34.89258313911676, 51.410454107601005]</t>
+          <t>[33.48148484595474, 50.71131437407202]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.478026573760963, 1.9057108589343494]</t>
+          <t>[1.54092132158058, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.42101517870471</v>
+        <v>58.18055610993319</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.113842335028366, 63.72818802238106]</t>
+          <t>[52.98349439699156, 63.377617822874825]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.27557557557592</v>
+        <v>18.03983983984019</v>
       </c>
       <c r="X2" t="n">
-        <v>17.42438438438471</v>
+        <v>17.13533533533567</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.12676676676713</v>
+        <v>18.94434434434471</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.70000000000027</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.137855365485052e-10</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.977462857044907e-10</v>
+        <v>2.874363817799758e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.60465529245253</v>
+        <v>51.08539782424828</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[28.167891930594273, 57.041418654310796]</t>
+          <t>[37.718576521641424, 64.45221912685513]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.544561466561902e-08</v>
+        <v>4.802380715318577e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>3.544561466561902e-08</v>
+        <v>4.802380715318577e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2767368904063083</v>
+        <v>-1.987474031099849</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 0.1006315965113842]</t>
+          <t>[-2.264210921506157, -1.7107371406935403]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1493489662997134</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1493489662997134</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.74162172134541</v>
+        <v>61.69828856564104</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.61085857590626, 68.87238486678456]</t>
+          <t>[54.365752854776794, 69.03082427650529]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.043843843843856</v>
+        <v>7.199359359359397</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.3795795795795822</v>
+        <v>6.196916916916948</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.467267267267294</v>
+        <v>8.201801801801846</v>
       </c>
     </row>
   </sheetData>
